--- a/Seminar3/Hw.xlsx
+++ b/Seminar3/Hw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t xml:space="preserve">Аналитик собрал статистику за 36 прошедших месяцев, согласно которой вложение в акцию компании АВС </t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>y = 0.033 * x + 11.46</t>
-  </si>
-  <si>
-    <t>не поняла как искать икс, чтобы вставить в 13й месяц</t>
   </si>
 </sst>
 </file>
@@ -182,7 +179,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -292,7 +289,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -305,7 +302,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -852,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -979,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1210,10 @@
       <c r="M8" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2">
+        <f>B12*M9+C12</f>
+        <v>16.733602605159945</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1252,10 +1252,12 @@
       <c r="L9" s="2">
         <v>161</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="2">
+        <v>159</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -1284,9 +1286,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>48</v>
-      </c>
+      <c r="B15" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
